--- a/forms/app/covid_isolation_follow_up.xlsx
+++ b/forms/app/covid_isolation_follow_up.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1027"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
@@ -35811,7 +35811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -41987,7 +41987,7 @@
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 15-16</v>
+        <v>2020-11-21 15-26</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>41</v>

--- a/forms/app/covid_isolation_follow_up.xlsx
+++ b/forms/app/covid_isolation_follow_up.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -112,13 +112,7 @@
     <t>constraint</t>
   </si>
   <si>
-    <t>Trace follow-up</t>
-  </si>
-  <si>
     <t>constraint_message::en</t>
-  </si>
-  <si>
-    <t>covid_trace_follow_up</t>
   </si>
   <si>
     <t>constraint_message::fr</t>
@@ -551,6 +545,12 @@
   </si>
   <si>
     <t>select_one isolation</t>
+  </si>
+  <si>
+    <t>COVID Isolation Follow Up</t>
+  </si>
+  <si>
+    <t>covid_isolation_follow_up</t>
   </si>
 </sst>
 </file>
@@ -1023,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP1027"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A44" sqref="A44"/>
@@ -1088,34 +1088,34 @@
         <v>26</v>
       </c>
       <c r="M1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="U1" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="V1" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
@@ -1140,24 +1140,24 @@
     </row>
     <row r="2" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="17"/>
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
       <c r="H2" s="16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I2" s="16"/>
       <c r="J2" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" s="17"/>
       <c r="L2" s="17"/>
@@ -1171,7 +1171,7 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
@@ -1196,25 +1196,25 @@
     </row>
     <row r="3" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" s="19"/>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
       <c r="G3" s="20"/>
       <c r="H3" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I3" s="19"/>
       <c r="J3" s="19"/>
       <c r="K3" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
@@ -1250,20 +1250,20 @@
     </row>
     <row r="4" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19"/>
@@ -1302,13 +1302,13 @@
     </row>
     <row r="5" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="6" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="23"/>
@@ -1398,13 +1398,13 @@
     </row>
     <row r="7" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -1448,20 +1448,20 @@
     </row>
     <row r="8" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="28"/>
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -1489,13 +1489,13 @@
     </row>
     <row r="9" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="29"/>
       <c r="E9" s="20"/>
@@ -1539,13 +1539,13 @@
     </row>
     <row r="10" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="20"/>
@@ -1589,13 +1589,13 @@
     </row>
     <row r="11" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="29"/>
       <c r="E11" s="20"/>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="12" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" s="29"/>
       <c r="E12" s="20"/>
@@ -1689,13 +1689,13 @@
     </row>
     <row r="13" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" s="29"/>
       <c r="E13" s="20"/>
@@ -1739,13 +1739,13 @@
     </row>
     <row r="14" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="20"/>
@@ -1789,13 +1789,13 @@
     </row>
     <row r="15" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="20"/>
@@ -1839,13 +1839,13 @@
     </row>
     <row r="16" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="20"/>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="17" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="20"/>
@@ -1939,13 +1939,13 @@
     </row>
     <row r="18" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="20"/>
@@ -1989,13 +1989,13 @@
     </row>
     <row r="19" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="20"/>
@@ -2039,13 +2039,13 @@
     </row>
     <row r="20" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="20"/>
@@ -2089,13 +2089,13 @@
     </row>
     <row r="21" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D21" s="36"/>
       <c r="E21" s="20"/>
@@ -2139,7 +2139,7 @@
     </row>
     <row r="22" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="23" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -2231,10 +2231,10 @@
     </row>
     <row r="24" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -2250,7 +2250,7 @@
       <c r="N24" s="35"/>
       <c r="O24" s="3"/>
       <c r="P24" s="36" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
@@ -2281,23 +2281,23 @@
     </row>
     <row r="25" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="32" t="s">
-        <v>87</v>
-      </c>
       <c r="C25" s="32" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D25" s="32"/>
       <c r="E25" s="37" t="s">
         <v>7</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G25" s="37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H25" s="37"/>
       <c r="I25" s="37"/>
@@ -2308,7 +2308,7 @@
       <c r="N25" s="32"/>
       <c r="O25" s="37"/>
       <c r="P25" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Q25" s="37"/>
       <c r="R25" s="3"/>
@@ -2338,20 +2338,20 @@
     </row>
     <row r="26" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D26" s="36"/>
       <c r="E26" s="33"/>
       <c r="F26" s="33"/>
       <c r="G26" s="34"/>
       <c r="H26" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="33"/>
@@ -2390,13 +2390,13 @@
     </row>
     <row r="27" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D27" s="36"/>
       <c r="E27" s="33"/>
@@ -2405,7 +2405,7 @@
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="36" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
@@ -2419,7 +2419,7 @@
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W27" s="3"/>
       <c r="X27" s="3"/>
@@ -2444,13 +2444,13 @@
     </row>
     <row r="28" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B28" s="36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C28" s="36" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D28" s="36"/>
       <c r="E28" s="33"/>
@@ -2459,7 +2459,7 @@
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="36" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -2473,7 +2473,7 @@
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W28" s="3"/>
       <c r="X28" s="3"/>
@@ -2498,13 +2498,13 @@
     </row>
     <row r="29" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B29" s="36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="36"/>
       <c r="E29" s="33"/>
@@ -2513,7 +2513,7 @@
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2527,7 +2527,7 @@
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W29" s="3"/>
       <c r="X29" s="3"/>
@@ -2552,13 +2552,13 @@
     </row>
     <row r="30" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B30" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C30" s="36" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D30" s="36"/>
       <c r="E30" s="33"/>
@@ -2567,7 +2567,7 @@
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="36" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -2581,7 +2581,7 @@
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W30" s="3"/>
       <c r="X30" s="3"/>
@@ -2606,13 +2606,13 @@
     </row>
     <row r="31" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B31" s="36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="36"/>
       <c r="E31" s="33"/>
@@ -2621,7 +2621,7 @@
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="36" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -2635,7 +2635,7 @@
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W31" s="3"/>
       <c r="X31" s="3"/>
@@ -2660,13 +2660,13 @@
     </row>
     <row r="32" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B32" s="36" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="33"/>
@@ -2675,7 +2675,7 @@
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="36" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -2689,7 +2689,7 @@
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W32" s="3"/>
       <c r="X32" s="3"/>
@@ -2714,13 +2714,13 @@
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="29"/>
       <c r="E33" s="33"/>
@@ -2729,7 +2729,7 @@
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="29" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -2743,7 +2743,7 @@
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W33" s="3"/>
       <c r="X33" s="3"/>
@@ -2768,13 +2768,13 @@
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="29"/>
       <c r="E34" s="33"/>
@@ -2783,7 +2783,7 @@
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -2797,7 +2797,7 @@
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W34" s="3"/>
       <c r="X34" s="3"/>
@@ -2822,13 +2822,13 @@
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B35" s="36" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="29"/>
       <c r="E35" s="33"/>
@@ -2837,7 +2837,7 @@
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -2851,7 +2851,7 @@
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W35" s="3"/>
       <c r="X35" s="3"/>
@@ -2876,13 +2876,13 @@
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C36" s="29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="29"/>
       <c r="E36" s="33"/>
@@ -2891,7 +2891,7 @@
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -2905,7 +2905,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W36" s="3"/>
       <c r="X36" s="3"/>
@@ -2930,13 +2930,13 @@
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C37" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="33"/>
@@ -2945,7 +2945,7 @@
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -2959,7 +2959,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W37" s="3"/>
       <c r="X37" s="3"/>
@@ -2984,13 +2984,13 @@
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C38" s="29" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D38" s="29"/>
       <c r="E38" s="33"/>
@@ -2999,7 +2999,7 @@
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3013,7 +3013,7 @@
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W38" s="3"/>
       <c r="X38" s="3"/>
@@ -3038,23 +3038,23 @@
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="36"/>
       <c r="E39" s="33"/>
       <c r="F39" s="33"/>
       <c r="G39" s="34"/>
       <c r="H39" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I39" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="J39" s="33"/>
       <c r="K39" s="3"/>
@@ -3063,7 +3063,7 @@
       <c r="N39" s="35"/>
       <c r="O39" s="3"/>
       <c r="P39" s="36" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B40" s="36"/>
       <c r="C40" s="3"/>
@@ -3140,20 +3140,20 @@
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B41" s="36" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D41" s="36"/>
       <c r="E41" s="33"/>
       <c r="F41" s="33"/>
       <c r="G41" s="34"/>
       <c r="H41" s="36" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="33"/>
@@ -3192,13 +3192,13 @@
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B42" s="36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="33" t="s">
@@ -3244,13 +3244,13 @@
     </row>
     <row r="43" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D43" s="28"/>
       <c r="E43" s="28" t="s">
@@ -3261,7 +3261,7 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K43" s="28"/>
       <c r="L43" s="28"/>
@@ -3287,13 +3287,13 @@
     </row>
     <row r="44" spans="1:42" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D44" s="28"/>
       <c r="E44" s="28" t="s">
@@ -3304,7 +3304,7 @@
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K44" s="28"/>
       <c r="L44" s="28"/>
@@ -3330,13 +3330,13 @@
     </row>
     <row r="45" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="28" t="s">
@@ -3345,11 +3345,11 @@
       <c r="F45" s="28"/>
       <c r="G45" s="28"/>
       <c r="H45" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I45" s="28"/>
       <c r="J45" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K45" s="28"/>
       <c r="L45" s="28"/>
@@ -3375,20 +3375,20 @@
     </row>
     <row r="46" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B46" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D46" s="27"/>
       <c r="E46" s="28"/>
       <c r="F46" s="28"/>
       <c r="G46" s="28"/>
       <c r="H46" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I46" s="28"/>
       <c r="J46" s="28"/>
@@ -3398,7 +3398,7 @@
       <c r="N46" s="28"/>
       <c r="O46" s="28"/>
       <c r="P46" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q46" s="28"/>
       <c r="R46" s="28"/>
@@ -3406,7 +3406,7 @@
       <c r="T46" s="28"/>
       <c r="U46" s="28"/>
       <c r="V46" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W46" s="28"/>
       <c r="X46" s="28"/>
@@ -3420,10 +3420,10 @@
     </row>
     <row r="47" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="28"/>
@@ -3439,7 +3439,7 @@
       <c r="N47" s="28"/>
       <c r="O47" s="28"/>
       <c r="P47" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q47" s="28"/>
       <c r="R47" s="28"/>
@@ -3447,7 +3447,7 @@
       <c r="T47" s="28"/>
       <c r="U47" s="28"/>
       <c r="V47" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="W47" s="28"/>
       <c r="X47" s="28"/>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="48" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B48" s="28"/>
       <c r="C48" s="28"/>
@@ -35887,37 +35887,37 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>164</v>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>162</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>170</v>
-      </c>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="D6" s="5"/>
     </row>
@@ -35938,46 +35938,46 @@
         <v>11</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>161</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -41925,7 +41925,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -41980,20 +41982,20 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>27</v>
+        <v>172</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="str">
         <f ca="1">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2020-11-21 15-26</v>
+        <v>2020-12-31 12-29</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="5"/>
